--- a/data/xlsx/vars.xlsx
+++ b/data/xlsx/vars.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726665D8-1802-014D-97F0-7C848BBB8098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40942775-C9FE-3A4F-80F0-38D1B3668A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="4280" windowWidth="19500" windowHeight="10940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13820" yWindow="1620" windowWidth="36920" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="variables-user" sheetId="63" r:id="rId1"/>
+    <sheet name="variables" sheetId="63" r:id="rId1"/>
     <sheet name="variables-system" sheetId="64" r:id="rId2"/>
+    <sheet name="outputs" sheetId="65" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -46,21 +47,9 @@
     <t>domain</t>
   </si>
   <si>
-    <t># Define sshkey to be used for compute instances</t>
-  </si>
-  <si>
-    <t># Define CIDR blocks to be used in each zone</t>
-  </si>
-  <si>
-    <t># Define zones</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
-    <t># Define webapptier compute instance profile &amp; quantity</t>
-  </si>
-  <si>
     <t>profile-webappserver</t>
   </si>
   <si>
@@ -70,9 +59,6 @@
     <t>webappserver-count</t>
   </si>
   <si>
-    <t># Define database tier compute instance profile &amp; quantity</t>
-  </si>
-  <si>
     <t>profile-dbserver</t>
   </si>
   <si>
@@ -82,30 +68,18 @@
     <t>dbserver-count</t>
   </si>
   <si>
-    <t xml:space="preserve"># Define Bastion compute instance profile </t>
-  </si>
-  <si>
     <t>profile-bastionserver</t>
   </si>
   <si>
-    <t># Define Load Balancer for webapptier</t>
-  </si>
-  <si>
     <t>webapptier-lb-connections</t>
   </si>
   <si>
     <t>webapptier-lb-algorithm</t>
   </si>
   <si>
-    <t># Define VPNaaS instance for connectivity to onpremise</t>
-  </si>
-  <si>
     <t>vpn-preshared-key</t>
   </si>
   <si>
-    <t># Define images</t>
-  </si>
-  <si>
     <t>centos-7-amd64</t>
   </si>
   <si>
@@ -184,33 +158,12 @@
     <t>*file</t>
   </si>
   <si>
-    <t># Define vpc</t>
-  </si>
-  <si>
-    <t># Define subnets for zone1</t>
-  </si>
-  <si>
-    <t># Define subnets for zone2</t>
-  </si>
-  <si>
-    <t># define DNS</t>
-  </si>
-  <si>
-    <t># Define OS images to be used for compute instances</t>
-  </si>
-  <si>
     <t>*value</t>
   </si>
   <si>
     <t>*name</t>
   </si>
   <si>
-    <t>webappvars.tf</t>
-  </si>
-  <si>
-    <t>systemvars.tf</t>
-  </si>
-  <si>
     <t>"us-south-1"</t>
   </si>
   <si>
@@ -244,15 +197,9 @@
     <t>"172.21.10.0/24"</t>
   </si>
   <si>
-    <t>"terraformer.blog"</t>
-  </si>
-  <si>
     <t>"www."</t>
   </si>
   <si>
-    <t>"~/id_rsa.pub"</t>
-  </si>
-  <si>
     <t>"cx2-2x4"</t>
   </si>
   <si>
@@ -319,6 +266,201 @@
     <t>"0.0.0.0"</t>
   </si>
   <si>
+    <t>ibm_is_vpn_gateway.VPNGateway1.public_ip_address</t>
+  </si>
+  <si>
+    <t>outputs.tf</t>
+  </si>
+  <si>
+    <t>app-name</t>
+  </si>
+  <si>
+    <t>zone1-webappserver</t>
+  </si>
+  <si>
+    <t>zone2-webappserver</t>
+  </si>
+  <si>
+    <t>zone1-dbserver-master</t>
+  </si>
+  <si>
+    <t>zone2-dbserver-slave</t>
+  </si>
+  <si>
+    <t>zone1-VPN-peer</t>
+  </si>
+  <si>
+    <t>zone2-VPN-peer</t>
+  </si>
+  <si>
+    <t>zone1-bastion-IP-address</t>
+  </si>
+  <si>
+    <t>zone2-bastion-IP-address</t>
+  </si>
+  <si>
+    <t>zone1-ssh-bastion</t>
+  </si>
+  <si>
+    <t>zone2-ssh-bastion</t>
+  </si>
+  <si>
+    <t>zone1-ssh-webappserver</t>
+  </si>
+  <si>
+    <t>zone2-ssh-webappserver</t>
+  </si>
+  <si>
+    <t>zone1-ssh-dbserver</t>
+  </si>
+  <si>
+    <t>zone2-ssh-dbserver</t>
+  </si>
+  <si>
+    <t>ibm_is_floating_ip.bastionserver-zone2-fip.address</t>
+  </si>
+  <si>
+    <t>ibm_is_vpn_gateway.VPNGateway2.public_ip_address</t>
+  </si>
+  <si>
+    <t>ibm_is_instance.webappserver-zone2[0].primary_network_interface[0].primary_ipv4_address</t>
+  </si>
+  <si>
+    <t>ibm_is_instance.dbserver-zone1[0].primary_network_interface[0].primary_ipv4_address</t>
+  </si>
+  <si>
+    <t>ibm_is_instance.dbserver-zone2[0].primary_network_interface[0].primary_ipv4_address</t>
+  </si>
+  <si>
+    <t>ibm_is_floating_ip.bastionserver-zone1-fip.address</t>
+  </si>
+  <si>
+    <t>"ssh root@${ibm_is_floating_ip.bastionserver-zone1-fip.address}"</t>
+  </si>
+  <si>
+    <t>"ssh root@${ibm_is_floating_ip.bastionserver-zone2-fip.address}"</t>
+  </si>
+  <si>
+    <t>"ssh -o ProxyJump=root@${ibm_is_floating_ip.bastionserver-zone1-fip.address} root@${ibm_is_instance.webappserver-zone1[0].primary_network_interface[0].primary_ipv4_address}"</t>
+  </si>
+  <si>
+    <t>"ssh -o ProxyJump=root@${ibm_is_floating_ip.bastionserver-zone2-fip.address} root@${ibm_is_instance.webappserver-zone2[0].primary_network_interface[0].primary_ipv4_address}"</t>
+  </si>
+  <si>
+    <t>"ssh -o ProxyJump=root@${ibm_is_floating_ip.bastionserver-zone1-fip.address} root@${ibm_is_instance.dbserver-zone1[0].primary_network_interface[0].primary_ipv4_address}"</t>
+  </si>
+  <si>
+    <t>"ssh -o ProxyJump=root@${ibm_is_floating_ip.bastionserver-zone2-fip.address} root@${ibm_is_instance.dbserver-zone2[0].primary_network_interface[0].primary_ipv4_address}"</t>
+  </si>
+  <si>
+    <t>variables.tf</t>
+  </si>
+  <si>
+    <t>systemvariables.tf</t>
+  </si>
+  <si>
+    <t>"${var.dns-name}${var.domain}"</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Define vpc</t>
+  </si>
+  <si>
+    <t>Define general resource group</t>
+  </si>
+  <si>
+    <t>Define CIS resource group</t>
+  </si>
+  <si>
+    <t>Define zone1</t>
+  </si>
+  <si>
+    <t>Define zone2</t>
+  </si>
+  <si>
+    <t>Define cidr block for vpc prefix2</t>
+  </si>
+  <si>
+    <t>Define cidr block for vpc</t>
+  </si>
+  <si>
+    <t>Define cidr block for vpc prefix1</t>
+  </si>
+  <si>
+    <t>Define webapptier subnet cidr for zone1</t>
+  </si>
+  <si>
+    <t>Define dbtier subnet cidr for zone1</t>
+  </si>
+  <si>
+    <t>define vpn subnet cidr for zone1</t>
+  </si>
+  <si>
+    <t>Define webapptier subnet cidr for zone2</t>
+  </si>
+  <si>
+    <t>Define dbtier subnet cidr for zone2</t>
+  </si>
+  <si>
+    <t>Define vpn subnet cidr for zone2</t>
+  </si>
+  <si>
+    <t>Define domain name</t>
+  </si>
+  <si>
+    <t>Define CIS instance name</t>
+  </si>
+  <si>
+    <t>Define dns name</t>
+  </si>
+  <si>
+    <t>Define ssh key location for compute instances</t>
+  </si>
+  <si>
+    <t>Define OS image for compute instances</t>
+  </si>
+  <si>
+    <t>Define webapp instance profile</t>
+  </si>
+  <si>
+    <t>Define webapp instance name</t>
+  </si>
+  <si>
+    <t>Define webapp instance count</t>
+  </si>
+  <si>
+    <t>Define db instance profile</t>
+  </si>
+  <si>
+    <t>Define db instance name</t>
+  </si>
+  <si>
+    <t>Define db instance count</t>
+  </si>
+  <si>
+    <t>Define bastion instance profile</t>
+  </si>
+  <si>
+    <t>Define bastion instance name</t>
+  </si>
+  <si>
+    <t>Define number of LB connections in webapptier</t>
+  </si>
+  <si>
+    <t>Define  algorithm used for LB in webapptier</t>
+  </si>
+  <si>
+    <t>Define vpn onprem cidr</t>
+  </si>
+  <si>
+    <t>Define vpn onprem address</t>
+  </si>
+  <si>
+    <t>Define vpn onprem key</t>
+  </si>
+  <si>
     <t>"webappvpc"</t>
   </si>
   <si>
@@ -326,6 +468,12 @@
   </si>
   <si>
     <t>"patterncisrg"</t>
+  </si>
+  <si>
+    <t>"mydomain.com"</t>
+  </si>
+  <si>
+    <t>"~/.ssh/id_rsa.pub"</t>
   </si>
 </sst>
 </file>
@@ -379,7 +527,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -399,6 +550,33 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -436,30 +614,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9951979B-AFCD-0849-A32A-D7514269AD3C}" name="Table3210" displayName="Table3210" ref="A1:C61" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:C61" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9951979B-AFCD-0849-A32A-D7514269AD3C}" name="Table3210" displayName="Table3210" ref="A1:D47" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:D47" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C47">
     <sortCondition ref="B1"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{3D275203-E26D-2A4A-A00D-ACFEB83A9694}" name="*file" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{856FD1F5-2A8E-DD4C-BA0D-793950F3313E}" name="*name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EBB95179-83FB-0847-A500-762321CD3A4C}" name="*value" dataDxfId="5"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{3D275203-E26D-2A4A-A00D-ACFEB83A9694}" name="*file" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{856FD1F5-2A8E-DD4C-BA0D-793950F3313E}" name="*name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{EBB95179-83FB-0847-A500-762321CD3A4C}" name="*value" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{F159DDEE-B999-4040-A34E-05B9E4B29D09}" name="comments" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA6E446B-230B-5546-81E2-5A1E4F3CD207}" name="Table32102" displayName="Table32102" ref="A1:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C15" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA6E446B-230B-5546-81E2-5A1E4F3CD207}" name="Table32102" displayName="Table32102" ref="A1:D13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D13" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C13">
     <sortCondition ref="B1"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{FC098E6B-56F6-3347-A96C-25D2DD78A80C}" name="*file" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{1128032F-07D1-784A-A92D-993B70ED8B37}" name="*name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{271F1168-E5FB-A64C-8A84-EFFF0D0C864B}" name="*value" dataDxfId="0"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{FC098E6B-56F6-3347-A96C-25D2DD78A80C}" name="*file" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{1128032F-07D1-784A-A92D-993B70ED8B37}" name="*name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{271F1168-E5FB-A64C-8A84-EFFF0D0C864B}" name="*value" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{27BEDDCB-4D6A-F24D-868C-320B65D9698B}" name="comments" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA98B69F-4F8B-E84C-82FB-BF2069D2E6E3}" name="Table32103" displayName="Table32103" ref="A1:D19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D19" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{1817650A-50AA-1F45-830F-8415A78472D7}" name="*file" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3C39E38C-7551-3F42-AC42-39EBACDCE173}" name="*name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{07C9ACF0-26BB-2549-A41F-B1EC592522E1}" name="*value" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7FE2EE4E-DF70-5D4F-8322-323E27DF1E7B}" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -728,550 +924,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E512DA79-E398-A147-BE1C-513651119830}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1283,170 +1498,405 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D5780C-0FB3-8641-AF0A-2663D9C6928D}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5402B7A3-8ED6-344D-8E9C-6F9906AB87F1}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="143.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/vars.xlsx
+++ b/data/xlsx/vars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40942775-C9FE-3A4F-80F0-38D1B3668A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1F8E2F-F396-314D-B1AF-FE784684E34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="1620" windowWidth="36920" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38840" yWindow="920" windowWidth="25440" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="63" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="152">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -293,18 +293,6 @@
     <t>zone2-VPN-peer</t>
   </si>
   <si>
-    <t>zone1-bastion-IP-address</t>
-  </si>
-  <si>
-    <t>zone2-bastion-IP-address</t>
-  </si>
-  <si>
-    <t>zone1-ssh-bastion</t>
-  </si>
-  <si>
-    <t>zone2-ssh-bastion</t>
-  </si>
-  <si>
     <t>zone1-ssh-webappserver</t>
   </si>
   <si>
@@ -464,16 +452,37 @@
     <t>"webappvpc"</t>
   </si>
   <si>
-    <t>"patternrg"</t>
-  </si>
-  <si>
-    <t>"patterncisrg"</t>
-  </si>
-  <si>
     <t>"mydomain.com"</t>
   </si>
   <si>
     <t>"~/.ssh/id_rsa.pub"</t>
+  </si>
+  <si>
+    <t>ibm_is_instance.webappserver-zone1[0].primary_network_interface[0].primary_ipv4_address</t>
+  </si>
+  <si>
+    <t>ansible-playbook</t>
+  </si>
+  <si>
+    <t>zone1-bastionserver</t>
+  </si>
+  <si>
+    <t>zone2-bastionserver</t>
+  </si>
+  <si>
+    <t>zone1-ssh-bastionserver</t>
+  </si>
+  <si>
+    <t>zone2-ssh-bastionserver</t>
+  </si>
+  <si>
+    <t>"ansible-playbook -i inventory --ssh-extra-args='-J root@${ibm_is_floating_ip.bastionserver-zone1-fip.address}' site.yaml"</t>
+  </si>
+  <si>
+    <t>"webapprg"</t>
+  </si>
+  <si>
+    <t>"webappcisrg"</t>
   </si>
 </sst>
 </file>
@@ -646,9 +655,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA98B69F-4F8B-E84C-82FB-BF2069D2E6E3}" name="Table32103" displayName="Table32103" ref="A1:D19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D19" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA98B69F-4F8B-E84C-82FB-BF2069D2E6E3}" name="Table32103" displayName="Table32103" ref="A1:D23" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D23" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="4">
@@ -927,7 +936,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -949,49 +958,49 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1002,7 +1011,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -1011,12 +1020,12 @@
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -1025,7 +1034,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1036,7 +1045,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -1045,12 +1054,12 @@
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -1059,12 +1068,12 @@
         <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -1073,7 +1082,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1084,7 +1093,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
@@ -1093,12 +1102,12 @@
         <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>37</v>
@@ -1107,12 +1116,12 @@
         <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
@@ -1121,7 +1130,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1132,7 +1141,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -1141,12 +1150,12 @@
         <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -1155,12 +1164,12 @@
         <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -1169,7 +1178,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1180,35 +1189,35 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
@@ -1217,7 +1226,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1228,16 +1237,16 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1248,7 +1257,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
@@ -1257,7 +1266,7 @@
         <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1268,7 +1277,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -1277,12 +1286,12 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
@@ -1291,12 +1300,12 @@
         <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>9</v>
@@ -1305,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1316,7 +1325,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
@@ -1325,12 +1334,12 @@
         <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
@@ -1339,12 +1348,12 @@
         <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
@@ -1353,7 +1362,7 @@
         <v>61</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1364,7 +1373,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
@@ -1373,12 +1382,12 @@
         <v>57</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>77</v>
@@ -1387,7 +1396,7 @@
         <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1398,7 +1407,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>14</v>
@@ -1407,12 +1416,12 @@
         <v>63</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>15</v>
@@ -1421,7 +1430,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1432,7 +1441,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>32</v>
@@ -1441,12 +1450,12 @@
         <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>33</v>
@@ -1455,12 +1464,12 @@
         <v>65</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>16</v>
@@ -1469,7 +1478,7 @@
         <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1521,12 +1530,12 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -1538,7 +1547,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -1550,7 +1559,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1562,7 +1571,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -1574,7 +1583,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -1586,7 +1595,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -1598,7 +1607,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -1610,7 +1619,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
@@ -1622,7 +1631,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -1634,7 +1643,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
@@ -1670,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5402B7A3-8ED6-344D-8E9C-6F9906AB87F1}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1702,7 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1701,23 +1710,17 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1725,10 +1728,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1737,10 +1740,10 @@
         <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1752,7 +1755,7 @@
         <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1761,10 +1764,10 @@
         <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1773,10 +1776,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1785,23 +1788,17 @@
         <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1809,10 +1806,10 @@
         <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1821,10 +1818,10 @@
         <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1833,10 +1830,10 @@
         <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1845,10 +1842,10 @@
         <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1857,10 +1854,10 @@
         <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1869,10 +1866,10 @@
         <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1883,20 +1880,62 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/vars.xlsx
+++ b/data/xlsx/vars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1F8E2F-F396-314D-B1AF-FE784684E34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318114A4-14E1-794D-A167-7A030ABC99AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38840" yWindow="920" windowWidth="25440" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="63" r:id="rId1"/>
@@ -272,9 +272,6 @@
     <t>outputs.tf</t>
   </si>
   <si>
-    <t>app-name</t>
-  </si>
-  <si>
     <t>zone1-webappserver</t>
   </si>
   <si>
@@ -483,6 +480,9 @@
   </si>
   <si>
     <t>"webappcisrg"</t>
+  </si>
+  <si>
+    <t>app_name</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E512DA79-E398-A147-BE1C-513651119830}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -958,49 +958,49 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -1020,12 +1020,12 @@
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -1054,12 +1054,12 @@
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -1068,12 +1068,12 @@
         <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -1082,7 +1082,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
@@ -1102,12 +1102,12 @@
         <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>37</v>
@@ -1116,12 +1116,12 @@
         <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
@@ -1130,7 +1130,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -1150,12 +1150,12 @@
         <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -1164,12 +1164,12 @@
         <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -1178,7 +1178,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1189,35 +1189,35 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
@@ -1226,7 +1226,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1237,16 +1237,16 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
@@ -1266,7 +1266,7 @@
         <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1277,7 +1277,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -1286,12 +1286,12 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
@@ -1300,12 +1300,12 @@
         <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>9</v>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
@@ -1334,12 +1334,12 @@
         <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
@@ -1348,12 +1348,12 @@
         <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
@@ -1362,7 +1362,7 @@
         <v>61</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1373,7 +1373,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
@@ -1382,12 +1382,12 @@
         <v>57</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>77</v>
@@ -1396,7 +1396,7 @@
         <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1407,7 +1407,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>14</v>
@@ -1416,12 +1416,12 @@
         <v>63</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>15</v>
@@ -1430,7 +1430,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1441,7 +1441,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>32</v>
@@ -1450,12 +1450,12 @@
         <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>33</v>
@@ -1464,12 +1464,12 @@
         <v>65</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>16</v>
@@ -1478,7 +1478,7 @@
         <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1530,12 +1530,12 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
@@ -1681,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5402B7A3-8ED6-344D-8E9C-6F9906AB87F1}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1702,7 +1702,7 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,10 +1710,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1728,10 +1728,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1740,10 +1740,10 @@
         <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1752,10 +1752,10 @@
         <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1764,10 +1764,10 @@
         <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1776,10 +1776,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1788,10 +1788,10 @@
         <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1806,10 +1806,10 @@
         <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1818,10 +1818,10 @@
         <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1830,10 +1830,10 @@
         <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1842,10 +1842,10 @@
         <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1854,10 +1854,10 @@
         <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1866,10 +1866,10 @@
         <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1884,7 +1884,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>79</v>
@@ -1896,10 +1896,10 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -1914,10 +1914,10 @@
         <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="1"/>
     </row>

--- a/data/xlsx/vars.xlsx
+++ b/data/xlsx/vars.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318114A4-14E1-794D-A167-7A030ABC99AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD44F2B-DF6A-904B-8396-EDFCAA8BCCA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,9 +458,6 @@
     <t>ibm_is_instance.webappserver-zone1[0].primary_network_interface[0].primary_ipv4_address</t>
   </si>
   <si>
-    <t>ansible-playbook</t>
-  </si>
-  <si>
     <t>zone1-bastionserver</t>
   </si>
   <si>
@@ -483,6 +480,9 @@
   </si>
   <si>
     <t>app_name</t>
+  </si>
+  <si>
+    <t>ansible</t>
   </si>
 </sst>
 </file>
@@ -983,7 +983,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>108</v>
@@ -997,7 +997,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>109</v>
@@ -1710,7 +1710,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>105</v>
@@ -1728,7 +1728,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>96</v>
@@ -1764,7 +1764,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>97</v>
@@ -1806,7 +1806,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>91</v>
@@ -1842,7 +1842,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>98</v>
@@ -1914,10 +1914,10 @@
         <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1"/>
     </row>
